--- a/Data/Optimised_Networks/Predictions/2_15_9_30_0.001_50 predictions_k_fold.xlsx
+++ b/Data/Optimised_Networks/Predictions/2_15_9_30_0.001_50 predictions_k_fold.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mostafizor\Documents\Bioprocess Simulation using Machine Learning\Data\Optimised_Networks\Predictions\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4693146A-7B1E-48AF-92F3-E6EB09E0A2F2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13F37D07-B468-4080-95D3-341294CA3F23}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="17925" yWindow="690" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -6537,15 +6537,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>422274</xdr:colOff>
-      <xdr:row>44</xdr:row>
-      <xdr:rowOff>83609</xdr:rowOff>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>99484</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>303741</xdr:colOff>
-      <xdr:row>66</xdr:row>
-      <xdr:rowOff>97896</xdr:rowOff>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>196851</xdr:colOff>
+      <xdr:row>77</xdr:row>
+      <xdr:rowOff>31750</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -6574,16 +6574,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>177799</xdr:colOff>
-      <xdr:row>44</xdr:row>
-      <xdr:rowOff>117475</xdr:rowOff>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>384174</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>22</xdr:col>
-      <xdr:colOff>511174</xdr:colOff>
-      <xdr:row>66</xdr:row>
-      <xdr:rowOff>117475</xdr:rowOff>
+      <xdr:col>39</xdr:col>
+      <xdr:colOff>333375</xdr:colOff>
+      <xdr:row>76</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -6612,16 +6612,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>23</xdr:col>
-      <xdr:colOff>476249</xdr:colOff>
-      <xdr:row>46</xdr:row>
-      <xdr:rowOff>126999</xdr:rowOff>
+      <xdr:col>41</xdr:col>
+      <xdr:colOff>31749</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>47624</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>36</xdr:col>
-      <xdr:colOff>15874</xdr:colOff>
-      <xdr:row>69</xdr:row>
-      <xdr:rowOff>47624</xdr:rowOff>
+      <xdr:col>60</xdr:col>
+      <xdr:colOff>349250</xdr:colOff>
+      <xdr:row>74</xdr:row>
+      <xdr:rowOff>158750</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -6938,8 +6938,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Z43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="X37" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="AF44" sqref="AF44"/>
+    <sheetView tabSelected="1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+      <selection activeCell="AB35" sqref="AB35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>

--- a/Data/Optimised_Networks/Predictions/2_15_9_30_0.001_50 predictions_k_fold.xlsx
+++ b/Data/Optimised_Networks/Predictions/2_15_9_30_0.001_50 predictions_k_fold.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mostafizor\Documents\Bioprocess Simulation using Machine Learning\Data\Optimised_Networks\Predictions\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13F37D07-B468-4080-95D3-341294CA3F23}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9CBF7DAE-2819-4F43-AD0C-47D1A25AA630}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -69,6 +69,7 @@
       <b/>
       <sz val="11"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
@@ -184,7 +185,17 @@
   <c:chart>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
-      <c:layout/>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="8.0638411169012311E-2"/>
+          <c:y val="3.2710713660200078E-2"/>
+          <c:w val="0.88501881010171957"/>
+          <c:h val="0.87093153181673022"/>
+        </c:manualLayout>
+      </c:layout>
       <c:scatterChart>
         <c:scatterStyle val="lineMarker"/>
         <c:varyColors val="0"/>
@@ -192,7 +203,7 @@
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:tx>
-            <c:v>Biomass Experimental</c:v>
+            <c:v>Experimental</c:v>
           </c:tx>
           <c:spPr>
             <a:ln w="25400" cap="rnd">
@@ -208,7 +219,7 @@
               <a:solidFill>
                 <a:schemeClr val="accent1"/>
               </a:solidFill>
-              <a:ln w="25400">
+              <a:ln w="12700">
                 <a:solidFill>
                   <a:schemeClr val="accent1"/>
                 </a:solidFill>
@@ -323,7 +334,7 @@
           <c:idx val="1"/>
           <c:order val="1"/>
           <c:tx>
-            <c:v>Biomass Predicted</c:v>
+            <c:v>Predicted</c:v>
           </c:tx>
           <c:spPr>
             <a:ln w="25400" cap="rnd">
@@ -339,7 +350,7 @@
               <a:solidFill>
                 <a:schemeClr val="accent2"/>
               </a:solidFill>
-              <a:ln w="25400">
+              <a:ln w="12700">
                 <a:solidFill>
                   <a:schemeClr val="accent2"/>
                 </a:solidFill>
@@ -482,6 +493,61 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB" b="1"/>
+                  <a:t>Time (h)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -544,6 +610,74 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB" sz="1000" b="1" i="0" baseline="0">
+                    <a:effectLst/>
+                  </a:rPr>
+                  <a:t>Biomass Concentration (g/L)</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-GB" sz="400">
+                  <a:effectLst/>
+                </a:endParaRPr>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="1.1550261904462357E-2"/>
+              <c:y val="0.22550021401282955"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -593,6 +727,47 @@
         <a:effectLst/>
       </c:spPr>
     </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.80587539710769174"/>
+          <c:y val="0.44903689094228288"/>
+          <c:w val="0.12450894466803746"/>
+          <c:h val="0.10192598031953587"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:extLst>
@@ -653,7 +828,17 @@
   <c:chart>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
-      <c:layout/>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.1118933629221424"/>
+          <c:y val="3.5706973799464831E-2"/>
+          <c:w val="0.8610588947340293"/>
+          <c:h val="0.82015596049586936"/>
+        </c:manualLayout>
+      </c:layout>
       <c:scatterChart>
         <c:scatterStyle val="lineMarker"/>
         <c:varyColors val="0"/>
@@ -661,7 +846,7 @@
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:tx>
-            <c:v>n</c:v>
+            <c:v>Experimental</c:v>
           </c:tx>
           <c:spPr>
             <a:ln w="25400" cap="rnd">
@@ -792,7 +977,7 @@
           <c:idx val="1"/>
           <c:order val="1"/>
           <c:tx>
-            <c:v>k</c:v>
+            <c:v>Predicted</c:v>
           </c:tx>
           <c:spPr>
             <a:ln w="25400" cap="rnd">
@@ -951,6 +1136,61 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB" b="1"/>
+                  <a:t>Time (h)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -1013,6 +1253,69 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB" b="1"/>
+                  <a:t>Nitrate Concentration (mg/L)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="1.2729076848400847E-2"/>
+              <c:y val="0.24512915347378098"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -1062,6 +1365,47 @@
         <a:effectLst/>
       </c:spPr>
     </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.84716908061268836"/>
+          <c:y val="0.39653041699968894"/>
+          <c:w val="0.12241177137195897"/>
+          <c:h val="0.10955625458637805"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:extLst>
@@ -1122,7 +1466,17 @@
   <c:chart>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
-      <c:layout/>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="9.048836060965032E-2"/>
+          <c:y val="3.5385058842541298E-2"/>
+          <c:w val="0.88428490075040911"/>
+          <c:h val="0.82177733806079745"/>
+        </c:manualLayout>
+      </c:layout>
       <c:scatterChart>
         <c:scatterStyle val="lineMarker"/>
         <c:varyColors val="0"/>
@@ -1130,7 +1484,7 @@
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:tx>
-            <c:v>l</c:v>
+            <c:v>Experimental</c:v>
           </c:tx>
           <c:spPr>
             <a:ln w="25400" cap="rnd">
@@ -1261,7 +1615,7 @@
           <c:idx val="1"/>
           <c:order val="1"/>
           <c:tx>
-            <c:v>lp</c:v>
+            <c:v>Predicted</c:v>
           </c:tx>
           <c:spPr>
             <a:ln w="25400" cap="rnd">
@@ -1420,6 +1774,61 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB" b="1"/>
+                  <a:t>Time (h)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -1482,6 +1891,66 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB" b="1"/>
+                  <a:t>Lutein</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-GB" b="1" baseline="0"/>
+                  <a:t> Production (mg/L)</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-GB" b="1"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -1532,7 +2001,17 @@
       </c:spPr>
     </c:plotArea>
     <c:legend>
-      <c:legendPos val="b"/>
+      <c:legendPos val="r"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.81616554293526966"/>
+          <c:y val="0.33956054644459949"/>
+          <c:w val="0.12280214598256013"/>
+          <c:h val="0.1085685540555533"/>
+        </c:manualLayout>
+      </c:layout>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1622,7 +2101,17 @@
   <c:chart>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
-      <c:layout/>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="7.6664696951053116E-2"/>
+          <c:y val="2.3067852676836888E-2"/>
+          <c:w val="0.90540840080685414"/>
+          <c:h val="0.88381497039240287"/>
+        </c:manualLayout>
+      </c:layout>
       <c:scatterChart>
         <c:scatterStyle val="lineMarker"/>
         <c:varyColors val="0"/>
@@ -1630,7 +2119,7 @@
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:tx>
-            <c:v>Biomass Experimental</c:v>
+            <c:v>Experimental</c:v>
           </c:tx>
           <c:spPr>
             <a:ln w="25400" cap="rnd">
@@ -1761,7 +2250,7 @@
           <c:idx val="1"/>
           <c:order val="1"/>
           <c:tx>
-            <c:v>Biomass Predicted</c:v>
+            <c:v>Predicted</c:v>
           </c:tx>
           <c:spPr>
             <a:ln w="25400" cap="rnd">
@@ -1920,6 +2409,61 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB" b="1"/>
+                  <a:t>Time (h)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -1982,6 +2526,74 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB" sz="1000" b="1" i="0" baseline="0">
+                    <a:effectLst/>
+                  </a:rPr>
+                  <a:t>Biomass Concentration (g/L)</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-GB" sz="400">
+                  <a:effectLst/>
+                </a:endParaRPr>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="8.1321471782036265E-3"/>
+              <c:y val="0.33523435336614787"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="0.000" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -2031,6 +2643,47 @@
         <a:effectLst/>
       </c:spPr>
     </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.86457927928294886"/>
+          <c:y val="0.38149981137290967"/>
+          <c:w val="0.11484806677362454"/>
+          <c:h val="9.3146143401789616E-2"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:extLst>
@@ -2091,7 +2744,17 @@
   <c:chart>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
-      <c:layout/>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="9.2405768123885609E-2"/>
+          <c:y val="3.4415334704526984E-2"/>
+          <c:w val="0.88338116427869318"/>
+          <c:h val="0.826661512988771"/>
+        </c:manualLayout>
+      </c:layout>
       <c:scatterChart>
         <c:scatterStyle val="lineMarker"/>
         <c:varyColors val="0"/>
@@ -2099,7 +2762,7 @@
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:tx>
-            <c:v>n</c:v>
+            <c:v>Experimental</c:v>
           </c:tx>
           <c:spPr>
             <a:ln w="25400" cap="rnd">
@@ -2230,51 +2893,7 @@
           <c:idx val="1"/>
           <c:order val="1"/>
           <c:tx>
-            <c:strRef>
-              <c:f>Sheet1!$C$15:$C$27</c:f>
-              <c:strCache>
-                <c:ptCount val="13"/>
-                <c:pt idx="0">
-                  <c:v>783.2</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>700.1001524</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>599.3122741</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>495.9514723</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>428.9002597</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>464.6413731</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>628.1295366</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>831.0502704</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>1018.634269</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>1179.084951</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>1319.699444</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>1487.475245</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>1717.945418</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
+            <c:v>Predicted</c:v>
           </c:tx>
           <c:spPr>
             <a:ln w="25400" cap="rnd">
@@ -2433,6 +3052,61 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB" b="1"/>
+                  <a:t>Time (h)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -2495,6 +3169,66 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB" sz="1000" b="1" i="0" baseline="0">
+                    <a:effectLst/>
+                  </a:rPr>
+                  <a:t>Nitrate Concentration (mg/L)</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-GB" sz="400">
+                  <a:effectLst/>
+                </a:endParaRPr>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -2544,6 +3278,47 @@
         <a:effectLst/>
       </c:spPr>
     </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.8682920030635034"/>
+          <c:y val="0.39714458653190243"/>
+          <c:w val="0.10958269482427405"/>
+          <c:h val="0.105593243262219"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:extLst>
@@ -2604,7 +3379,17 @@
   <c:chart>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
-      <c:layout/>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="6.376623224725568E-2"/>
+          <c:y val="2.2506390235996498E-2"/>
+          <c:w val="0.91431118458014315"/>
+          <c:h val="0.8866428682130828"/>
+        </c:manualLayout>
+      </c:layout>
       <c:scatterChart>
         <c:scatterStyle val="lineMarker"/>
         <c:varyColors val="0"/>
@@ -2612,7 +3397,7 @@
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:tx>
-            <c:v>l</c:v>
+            <c:v>Experimental</c:v>
           </c:tx>
           <c:spPr>
             <a:ln w="25400" cap="rnd">
@@ -2743,7 +3528,7 @@
           <c:idx val="1"/>
           <c:order val="1"/>
           <c:tx>
-            <c:v>lp</c:v>
+            <c:v>Predicted</c:v>
           </c:tx>
           <c:spPr>
             <a:ln w="25400" cap="rnd">
@@ -2902,6 +3687,61 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB" b="1"/>
+                  <a:t>Time (h)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -2964,6 +3804,74 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB" sz="1000" b="1" i="0" baseline="0">
+                    <a:effectLst/>
+                  </a:rPr>
+                  <a:t>Lutein Production (mg/L)</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-GB" sz="400">
+                  <a:effectLst/>
+                </a:endParaRPr>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="6.2270471825969101E-3"/>
+              <c:y val="0.35340837324381874"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -3014,7 +3922,17 @@
       </c:spPr>
     </c:plotArea>
     <c:legend>
-      <c:legendPos val="b"/>
+      <c:legendPos val="r"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.85506996268357716"/>
+          <c:y val="0.3393604163136496"/>
+          <c:w val="0.13048452371717986"/>
+          <c:h val="0.1094818998962742"/>
+        </c:manualLayout>
+      </c:layout>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -6464,16 +7382,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>26</xdr:col>
-      <xdr:colOff>395286</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>52387</xdr:rowOff>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>201809</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>82153</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>38</xdr:col>
-      <xdr:colOff>63500</xdr:colOff>
+      <xdr:col>39</xdr:col>
+      <xdr:colOff>202406</xdr:colOff>
       <xdr:row>23</xdr:row>
-      <xdr:rowOff>127000</xdr:rowOff>
+      <xdr:rowOff>184554</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -6500,16 +7418,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>38</xdr:col>
-      <xdr:colOff>338931</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>13493</xdr:rowOff>
+      <xdr:col>42</xdr:col>
+      <xdr:colOff>309562</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>117672</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>49</xdr:col>
-      <xdr:colOff>586581</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>123031</xdr:rowOff>
+      <xdr:col>53</xdr:col>
+      <xdr:colOff>288924</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>65166</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -6536,16 +7454,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>43</xdr:row>
-      <xdr:rowOff>99484</xdr:rowOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>250032</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>75672</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>196851</xdr:colOff>
-      <xdr:row>77</xdr:row>
-      <xdr:rowOff>31750</xdr:rowOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>83344</xdr:colOff>
+      <xdr:row>68</xdr:row>
+      <xdr:rowOff>105344</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -6580,10 +7498,10 @@
       <xdr:rowOff>180975</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>39</xdr:col>
-      <xdr:colOff>333375</xdr:colOff>
-      <xdr:row>76</xdr:row>
-      <xdr:rowOff>142875</xdr:rowOff>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>559594</xdr:colOff>
+      <xdr:row>65</xdr:row>
+      <xdr:rowOff>49212</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -6612,16 +7530,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>41</xdr:col>
-      <xdr:colOff>31749</xdr:colOff>
+      <xdr:col>34</xdr:col>
+      <xdr:colOff>47623</xdr:colOff>
       <xdr:row>42</xdr:row>
-      <xdr:rowOff>47624</xdr:rowOff>
+      <xdr:rowOff>166688</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>60</xdr:col>
-      <xdr:colOff>349250</xdr:colOff>
-      <xdr:row>74</xdr:row>
-      <xdr:rowOff>158750</xdr:rowOff>
+      <xdr:col>46</xdr:col>
+      <xdr:colOff>199355</xdr:colOff>
+      <xdr:row>65</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -6938,8 +7856,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Z43"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="AB35" sqref="AB35"/>
+    <sheetView tabSelected="1" topLeftCell="C25" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="V36" sqref="V36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -7840,15 +8758,15 @@
         <v>0.48525054207081414</v>
       </c>
       <c r="T31">
-        <f t="shared" ref="T31:T38" si="2">ABS((K3-C3)/K3)</f>
+        <f>ABS((K3-C3)/K3)</f>
         <v>0.4912510793595854</v>
       </c>
       <c r="U31">
-        <f t="shared" ref="U31:U42" si="3">ABS((L3-D3)/L3)</f>
+        <f t="shared" ref="U31:U42" si="2">ABS((L3-D3)/L3)</f>
         <v>0.30738059889141928</v>
       </c>
       <c r="X31">
-        <f t="shared" ref="X31:X42" si="4">ABS((J16-B16)/J16)</f>
+        <f t="shared" ref="X31:X42" si="3">ABS((J16-B16)/J16)</f>
         <v>0.32964022438042506</v>
       </c>
       <c r="Y31">
@@ -7866,15 +8784,15 @@
         <v>0.19069404643601359</v>
       </c>
       <c r="T32">
+        <f>ABS((K4-C4)/K4)</f>
+        <v>0.30390907658798882</v>
+      </c>
+      <c r="U32">
         <f t="shared" si="2"/>
-        <v>0.30390907658798882</v>
-      </c>
-      <c r="U32">
+        <v>0.1483865719426232</v>
+      </c>
+      <c r="X32">
         <f t="shared" si="3"/>
-        <v>0.1483865719426232</v>
-      </c>
-      <c r="X32">
-        <f t="shared" si="4"/>
         <v>0.36015698886320857</v>
       </c>
       <c r="Y32">
@@ -7892,15 +8810,15 @@
         <v>0.11036768927512434</v>
       </c>
       <c r="T33">
+        <f>ABS((K5-C5)/K5)</f>
+        <v>0.52027133560784178</v>
+      </c>
+      <c r="U33">
         <f t="shared" si="2"/>
-        <v>0.52027133560784178</v>
-      </c>
-      <c r="U33">
+        <v>0.11991587978106827</v>
+      </c>
+      <c r="X33">
         <f t="shared" si="3"/>
-        <v>0.11991587978106827</v>
-      </c>
-      <c r="X33">
-        <f t="shared" si="4"/>
         <v>0.17578436687841076</v>
       </c>
       <c r="Y33">
@@ -7918,15 +8836,15 @@
         <v>4.8516644297536278E-2</v>
       </c>
       <c r="T34">
+        <f t="shared" ref="T31:T38" si="4">ABS((K6-C6)/K6)</f>
+        <v>0.63780597928311189</v>
+      </c>
+      <c r="U34">
         <f t="shared" si="2"/>
-        <v>0.63780597928311189</v>
-      </c>
-      <c r="U34">
+        <v>0.12765728195210857</v>
+      </c>
+      <c r="X34">
         <f t="shared" si="3"/>
-        <v>0.12765728195210857</v>
-      </c>
-      <c r="X34">
-        <f t="shared" si="4"/>
         <v>5.5225050370207175E-2</v>
       </c>
       <c r="Y34">
@@ -7944,15 +8862,15 @@
         <v>6.2836166937351792E-2</v>
       </c>
       <c r="T35">
+        <f>ABS((K7-C7)/K7)</f>
+        <v>3.6477451208823384</v>
+      </c>
+      <c r="U35">
         <f t="shared" si="2"/>
-        <v>3.6477451208823384</v>
-      </c>
-      <c r="U35">
+        <v>8.8895098738146286E-2</v>
+      </c>
+      <c r="X35">
         <f t="shared" si="3"/>
-        <v>8.8895098738146286E-2</v>
-      </c>
-      <c r="X35">
-        <f t="shared" si="4"/>
         <v>4.4039340270336472E-2</v>
       </c>
       <c r="Y35">
@@ -7970,15 +8888,15 @@
         <v>7.8563750469806612E-2</v>
       </c>
       <c r="T36">
+        <f t="shared" si="4"/>
+        <v>0.1782598500839648</v>
+      </c>
+      <c r="U36">
         <f t="shared" si="2"/>
-        <v>0.1782598500839648</v>
-      </c>
-      <c r="U36">
+        <v>5.4178821745226903E-2</v>
+      </c>
+      <c r="X36">
         <f t="shared" si="3"/>
-        <v>5.4178821745226903E-2</v>
-      </c>
-      <c r="X36">
-        <f t="shared" si="4"/>
         <v>4.0894507974324881E-2</v>
       </c>
       <c r="Y36">
@@ -7996,15 +8914,15 @@
         <v>8.7351424509768696E-2</v>
       </c>
       <c r="T37">
+        <f t="shared" si="4"/>
+        <v>0.22037156469994129</v>
+      </c>
+      <c r="U37">
         <f t="shared" si="2"/>
-        <v>0.22037156469994129</v>
-      </c>
-      <c r="U37">
+        <v>6.3113433770975932E-3</v>
+      </c>
+      <c r="X37">
         <f t="shared" si="3"/>
-        <v>6.3113433770975932E-3</v>
-      </c>
-      <c r="X37">
-        <f t="shared" si="4"/>
         <v>6.8214691606304695E-2</v>
       </c>
       <c r="Y37">
@@ -8022,15 +8940,15 @@
         <v>6.7307807386577767E-2</v>
       </c>
       <c r="T38">
+        <f t="shared" si="4"/>
+        <v>7.7127329001424758E-2</v>
+      </c>
+      <c r="U38">
         <f t="shared" si="2"/>
-        <v>7.7127329001424758E-2</v>
-      </c>
-      <c r="U38">
+        <v>8.535051904448818E-3</v>
+      </c>
+      <c r="X38">
         <f t="shared" si="3"/>
-        <v>8.535051904448818E-3</v>
-      </c>
-      <c r="X38">
-        <f t="shared" si="4"/>
         <v>9.3388087141413445E-2</v>
       </c>
       <c r="Y38">
@@ -8052,11 +8970,11 @@
         <v>0.1032874389889441</v>
       </c>
       <c r="U39">
+        <f t="shared" si="2"/>
+        <v>1.4694644288511003E-2</v>
+      </c>
+      <c r="X39">
         <f t="shared" si="3"/>
-        <v>1.4694644288511003E-2</v>
-      </c>
-      <c r="X39">
-        <f t="shared" si="4"/>
         <v>0.13709071030995978</v>
       </c>
       <c r="Y39">
@@ -8078,11 +8996,11 @@
         <v>7.9831063000318378E-2</v>
       </c>
       <c r="U40">
+        <f t="shared" si="2"/>
+        <v>5.6813153131348108E-3</v>
+      </c>
+      <c r="X40">
         <f t="shared" si="3"/>
-        <v>5.6813153131348108E-3</v>
-      </c>
-      <c r="X40">
-        <f t="shared" si="4"/>
         <v>0.14748425528218156</v>
       </c>
       <c r="Y40">
@@ -8104,11 +9022,11 @@
         <v>5.2054762072255317E-2</v>
       </c>
       <c r="U41">
+        <f t="shared" si="2"/>
+        <v>6.9505289068288543E-3</v>
+      </c>
+      <c r="X41">
         <f t="shared" si="3"/>
-        <v>6.9505289068288543E-3</v>
-      </c>
-      <c r="X41">
-        <f t="shared" si="4"/>
         <v>0.16668142451125964</v>
       </c>
       <c r="Y41">
@@ -8130,11 +9048,11 @@
         <v>0.12923590442297808</v>
       </c>
       <c r="U42">
+        <f t="shared" si="2"/>
+        <v>9.1039149603369483E-3</v>
+      </c>
+      <c r="X42">
         <f t="shared" si="3"/>
-        <v>9.1039149603369483E-3</v>
-      </c>
-      <c r="X42">
-        <f t="shared" si="4"/>
         <v>0.18984836460139864</v>
       </c>
       <c r="Y42">
